--- a/data/4/20230615-a1r-nc-session4-f_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-f_transcript.xlsx
@@ -1,399 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F333856-DE6F-F54E-9140-41F8EDDF3B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:08"</t>
-  </si>
-  <si>
-    <t>Hey, it's Daniel from Georgia.</t>
-  </si>
-  <si>
-    <t>"2:14"</t>
-  </si>
-  <si>
-    <t>Hi, it's Ann from Tennessee.</t>
-  </si>
-  <si>
-    <t>"2:20"</t>
-  </si>
-  <si>
-    <t>Hi. It's Sheila from Champlin Minnesota.</t>
-  </si>
-  <si>
-    <t>"2:24"</t>
-  </si>
-  <si>
-    <t>Hey, Janice from Missouri.</t>
-  </si>
-  <si>
-    <t>"12:33"</t>
-  </si>
-  <si>
-    <t>Well, I definitely think we need to close loopholes because I hate to think that we have foreign countries dictating who should be in our offices.</t>
-  </si>
-  <si>
-    <t>"12:45"</t>
-  </si>
-  <si>
-    <t>I agree with that. I don't think it's right that anybody from a foreign country can contribute to our elections. I belong thought that and I think that it needs to be more publicized whoever is donating and how much they're donating. I don't think they should be a corporation. Should be able to hide behind that either. I think it should all be matter of public record When anybody donates to any kind of campaign</t>
-  </si>
-  <si>
-    <t>"13:20"</t>
-  </si>
-  <si>
-    <t>I agree with that. I also think that we do not really need to increase anymore amounts as far as contributions by individuals.</t>
-  </si>
-  <si>
-    <t>"13:35"</t>
-  </si>
-  <si>
-    <t>I agree that we shouldn't increase the limits on contributions for individuals and stuff because I mean, let's face it, not everybody could get the look, the guys that don't come from million dollar families, have enough of a struggle.</t>
-  </si>
-  <si>
-    <t>"14:04"</t>
-  </si>
-  <si>
-    <t>I agree that loopholes should be closed and that we should not raise the limits on contributions to slow down the amount of people that are not</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United States citizens from contributing.</t>
-  </si>
-  <si>
-    <t>"14:26"</t>
-  </si>
-  <si>
-    <t>Yeah, I think we go with the Constitutional Amendment that reverses corporations have free speech as individuals, like that has really disrupted. The national elections drastically since it has been ruled that way.</t>
-  </si>
-  <si>
-    <t>"16:38"</t>
-  </si>
-  <si>
-    <t>On the public financing, I don't understand where they think the Public Funding is coming from. It's coming from us and I guess I don't want to pay other people to vote or</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Or to send money to their favorite candidate.</t>
-  </si>
-  <si>
-    <t>"17:03"</t>
-  </si>
-  <si>
-    <t>I agree. I don't think that we should fund that. I think at the candidates want to run, then they need to get out there and get contributors and pay for that. And I just don't think it's right. That they put another burden on US. Public citizens to fund that I do. I just don't agree.</t>
-  </si>
-  <si>
-    <t>"17:26"</t>
-  </si>
-  <si>
-    <t>So part of the thought process for public speaking or public financing is to take all of these private donors out of the situation. So they less influence, politicians. I'm just giving the reason why they're suggesting it not necessarily agreeing with it. That being said, if you're going to use your taxpayer dollars, I could see using a little bit of it to have a little bit more influence if</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if your lower on the social economic scale,</t>
-  </si>
-  <si>
-    <t>"18:01"</t>
-  </si>
-  <si>
-    <t>I believe we definitely need full disclosure. I believe most of these run as a non-profit. 501 C. So I think being that they are run as such they need to have full disclosure all funds that they received.</t>
-  </si>
-  <si>
-    <t>"18:18"</t>
-  </si>
-  <si>
-    <t>I agree with full disclosure if a candidate or if somebody contributing doesn't want the public to know that they are contributing, then they shouldn't be contributing. I think we should know who is giving to the</t>
-  </si>
-  <si>
-    <t>"18:34"</t>
-  </si>
-  <si>
-    <t>100% agree on this one. If you're contributing that much money, people have a right to know</t>
-  </si>
-  <si>
-    <t>"18:43"</t>
-  </si>
-  <si>
-    <t>I agree also because in the end that kind of influences the elections, you know, if they can afford to put more commercials out and go have people beat on doors and hand out, flyers and stuff like that, that does influence the election and I think everything should be above board. I think any of us citizens ought to be able to look at their page and see who contributed and how much they contributed. I think it should be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Be total honesty.</t>
-  </si>
-  <si>
-    <t>"19:16"</t>
-  </si>
-  <si>
-    <t>Yes, I agree that particularly the super Pacs. I think they need to have full disclosure</t>
-  </si>
-  <si>
-    <t>"20:36"</t>
-  </si>
-  <si>
-    <t>I think as far as gerrymandering is concerned, we definitely need someone that is not a political party, assisting in the redistricting.</t>
-  </si>
-  <si>
-    <t>"20:46"</t>
-  </si>
-  <si>
-    <t>I agree, but the big problem would be the independent commission's. I don't know that there's anyone out there that really has an independent View.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Concerning politics.</t>
-  </si>
-  <si>
-    <t>"21:04"</t>
-  </si>
-  <si>
-    <t>Harry, I think it's good in theory but would be hard to put into practice.</t>
-  </si>
-  <si>
-    <t>"21:11"</t>
-  </si>
-  <si>
-    <t>I agree because I know they had a big to do here in the state of Missouri when they tried to redistrict some zones and change it, it was a big, big argument, you know, as to where people were falling in districts and stuff, I think it would be very hard for them to do.</t>
-  </si>
-  <si>
-    <t>"21:36"</t>
-  </si>
-  <si>
-    <t>So I it's been tried in a couple different places and I think this is a question that we need to ask the panel of how well has it worked in all of these different places.</t>
-  </si>
-  <si>
-    <t>"22:58"</t>
-  </si>
-  <si>
-    <t>Okay, I'm against 16 year olds voting on anything. I remember how I was at 16 and I don't think I was responsible enough to vote on any kind of Elections. I also think that I forgot what I was gonna say now. Okay, I'll think of it.</t>
-  </si>
-  <si>
-    <t>"23:23"</t>
-  </si>
-  <si>
-    <t>I think they should make it may be a national holiday. But as far as finding people for not voting, there could be multiple reasons, it could be health. I mean, you shouldn't have to be fined. That's basically my thoughts on that.</t>
-  </si>
-  <si>
-    <t>"23:39"</t>
-  </si>
-  <si>
-    <t>I agree. I don't think there should be a fine. I think that would be ridiculous honestly, but as far as making it a national holiday,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I kind of go both ways on that.</t>
-  </si>
-  <si>
-    <t>"23:54"</t>
-  </si>
-  <si>
-    <t>Yeah, I really don't care if they make it a national holiday either but yes, I 100% agree me as an elderly disabled person. There have been not very often times that I haven't been able to make it to the pole but I don't think that I should be fined for that. I get out of jury duty because of my disability. So I don't think that I should have to pay a fine because I couldn't get up there and boat. I don't agree with that at all.</t>
-  </si>
-  <si>
-    <t>"24:23"</t>
-  </si>
-  <si>
-    <t>I think finding someone for not voting shouldn't happen, especially when they're so many people not allowed to vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Because they've been in jail and served their time and still can't vote when they get out and our citizens.</t>
-  </si>
-  <si>
-    <t>"24:50"</t>
-  </si>
-  <si>
-    <t>So, for the finding for voting is more along the lines of, if you're eligible to vote you to get a small fine, like, $5, $10 $20 for not voting and this is something they do in Australia. They have a high percentage of voter participation. I'm just explaining the reasoning behind it. The second piece about the national holiday is, I don't know about this, but in the states that I've been in, in the</t>
-  </si>
-  <si>
-    <t>Terry, most voting is on Saturday, except for federal elections, which aren't Tuesday. And that's because of an agricultural thing back from the 1800s. So I support a national holiday.</t>
-  </si>
-  <si>
-    <t>"25:35"</t>
-  </si>
-  <si>
-    <t>I don't support a national holiday because it's just another way to spend more money for people to take time off. I think that with the broad absentee voting that is happening out there. Now because of covid that started with covid, I should say I just don't think a national holidays necessary.</t>
-  </si>
-  <si>
-    <t>"26:03"</t>
-  </si>
-  <si>
-    <t>So, how would you feel about moving it from Tuesday to Saturday?</t>
-  </si>
-  <si>
-    <t>"26:16"</t>
-  </si>
-  <si>
-    <t>I have no opinion on that. I don't really care if they did it on a Tuesday or Saturday. The only thing bad about that is, I know a lot of people volunteer to go in there and work, you know, to sign people in and hand out ballots and stuff in. As far as I know here in my County, I don't think that's a paid position. So a lot of people would be giving up their weekend. Of course, they're giving up taking having to take time off work on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Tuesday to do it as well. So it's I'm kind of on the fence with this one.</t>
-  </si>
-  <si>
-    <t>"26:53"</t>
-  </si>
-  <si>
-    <t>I wouldn't mind having it on a Saturday. I think that would be a good idea to make sure that other people get a chance to vote and if they have cabins and want to go out of town, they can vote on the way out.</t>
-  </si>
-  <si>
-    <t>"27:08"</t>
-  </si>
-  <si>
-    <t>Well with early voting in my state it doesn't matter what day the actual election happens on because I would say about 75 percent of people in my age group vote early, just to avoid the lines.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But a lot of our precincts are in school and they have to give the school closed the schools to have elections. So holiday might be a good thing because the schools would already be closed.</t>
-  </si>
-  <si>
-    <t>"32:06"</t>
-  </si>
-  <si>
-    <t>I'm wondering if we should put something in the question about redistricting, so they know what that is about.</t>
-  </si>
-  <si>
-    <t>"32:18"</t>
-  </si>
-  <si>
-    <t>I agree. I think it needs to be put in there on the redistricting but I think it's a very good question.</t>
-  </si>
-  <si>
-    <t>"32:49"</t>
-  </si>
-  <si>
-    <t>Yes, I think that's very good the way you put it, James.</t>
-  </si>
-  <si>
-    <t>"32:56"</t>
-  </si>
-  <si>
-    <t>All right, sounds good. We can move on.</t>
-  </si>
-  <si>
-    <t>"33:23"</t>
-  </si>
-  <si>
-    <t>I think we all agree on that. There should be full disclosure</t>
-  </si>
-  <si>
-    <t>"33:58"</t>
-  </si>
-  <si>
-    <t>Does everybody understand that? Or do I need to reword anything?</t>
-  </si>
-  <si>
-    <t>"34:05"</t>
-  </si>
-  <si>
-    <t>No, that's all fine.</t>
-  </si>
-  <si>
-    <t>"34:48"</t>
-  </si>
-  <si>
-    <t>I like this question. It's a good question. I think so. It ought to be higher-ranked I think.</t>
-  </si>
-  <si>
-    <t>"34:57"</t>
-  </si>
-  <si>
-    <t>I agree. I think this is a very potent question to ask the panel members of the, we can't just like, every other</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -469,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -578,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1660,789 +1302,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:08"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Hey, it's Daniel from Georgia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:14"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hi, it's Ann from Tennessee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:14"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Hi. It's Sheila from Champlin Minnesota.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:24"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Hey, Janice from Missouri.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"12:33"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Well, I definitely think we need to close loopholes because I hate to think that we have foreign countries dictating who should be in our offices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"12:45"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that. I don't think it's right that anybody from a foreign country can contribute to our elections. I belong thought that and I think that it needs to be more publicized whoever is donating and how much they're donating. I don't think they should be a corporation. Should be able to hide behind that either. I think it should all be matter of public record When anybody donates to any kind of campaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:20"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that. I also think that we do not really need to increase anymore amounts as far as contributions by individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:35"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I agree that we shouldn't increase the limits on contributions for individuals and stuff because I mean, let's face it, not everybody could get the look, the guys that don't come from million dollar families, have enough of a struggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"14:04"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I agree that loopholes should be closed and that we should not raise the limits on contributions to slow down the amount of people that are not</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"14:04"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> United States citizens from contributing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:26"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I think we go with the Constitutional Amendment that reverses corporations have free speech as individuals, like that has really disrupted. The national elections drastically since it has been ruled that way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"16:38"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>On the public financing, I don't understand where they think the Public Funding is coming from. It's coming from us and I guess I don't want to pay other people to vote or</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"16:38"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Or to send money to their favorite candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"17:03"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I don't think that we should fund that. I think at the candidates want to run, then they need to get out there and get contributors and pay for that. And I just don't think it's right. That they put another burden on US. Public citizens to fund that I do. I just don't agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"17:26"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>So part of the thought process for public speaking or public financing is to take all of these private donors out of the situation. So they less influence, politicians. I'm just giving the reason why they're suggesting it not necessarily agreeing with it. That being said, if you're going to use your taxpayer dollars, I could see using a little bit of it to have a little bit more influence if</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"17:26"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if your lower on the social economic scale,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:01"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>I believe we definitely need full disclosure. I believe most of these run as a non-profit. 501 C. So I think being that they are run as such they need to have full disclosure all funds that they received.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:18"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I agree with full disclosure if a candidate or if somebody contributing doesn't want the public to know that they are contributing, then they shouldn't be contributing. I think we should know who is giving to the</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:34"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>100% agree on this one. If you're contributing that much money, people have a right to know</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:43"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I agree also because in the end that kind of influences the elections, you know, if they can afford to put more commercials out and go have people beat on doors and hand out, flyers and stuff like that, that does influence the election and I think everything should be above board. I think any of us citizens ought to be able to look at their page and see who contributed and how much they contributed. I think it should be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"18:43"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Be total honesty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:16"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I agree that particularly the super Pacs. I think they need to have full disclosure</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"20:36"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I think as far as gerrymandering is concerned, we definitely need someone that is not a political party, assisting in the redistricting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"20:46"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>I agree, but the big problem would be the independent commission's. I don't know that there's anyone out there that really has an independent View.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"20:46"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Concerning politics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>9944</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"21:04"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Harry, I think it's good in theory but would be hard to put into practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"21:11"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"21:11"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I agree because I know they had a big to do here in the state of Missouri when they tried to redistrict some zones and change it, it was a big, big argument, you know, as to where people were falling in districts and stuff, I think it would be very hard for them to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"21:36"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>So I it's been tried in a couple different places and I think this is a question that we need to ask the panel of how well has it worked in all of these different places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Okay, I'm against 16 year olds voting on anything. I remember how I was at 16 and I don't think I was responsible enough to vote on any kind of Elections. I also think that I forgot what I was gonna say now. Okay, I'll think of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:23"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>I think they should make it may be a national holiday. But as far as finding people for not voting, there could be multiple reasons, it could be health. I mean, you shouldn't have to be fined. That's basically my thoughts on that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"23:39"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I don't think there should be a fine. I think that would be ridiculous honestly, but as far as making it a national holiday,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"23:39"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I kind of go both ways on that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"23:54"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I really don't care if they make it a national holiday either but yes, I 100% agree me as an elderly disabled person. There have been not very often times that I haven't been able to make it to the pole but I don't think that I should be fined for that. I get out of jury duty because of my disability. So I don't think that I should have to pay a fine because I couldn't get up there and boat. I don't agree with that at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I think finding someone for not voting shouldn't happen, especially when they're so many people not allowed to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Because they've been in jail and served their time and still can't vote when they get out and our citizens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"24:50"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>So, for the finding for voting is more along the lines of, if you're eligible to vote you to get a small fine, like, $5, $10 $20 for not voting and this is something they do in Australia. They have a high percentage of voter participation. I'm just explaining the reasoning behind it. The second piece about the national holiday is, I don't know about this, but in the states that I've been in, in the</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"24:50"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Terry, most voting is on Saturday, except for federal elections, which aren't Tuesday. And that's because of an agricultural thing back from the 1800s. So I support a national holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"25:35"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>I don't support a national holiday because it's just another way to spend more money for people to take time off. I think that with the broad absentee voting that is happening out there. Now because of covid that started with covid, I should say I just don't think a national holidays necessary.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:03"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>So, how would you feel about moving it from Tuesday to Saturday?</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"26:16"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>I have no opinion on that. I don't really care if they did it on a Tuesday or Saturday. The only thing bad about that is, I know a lot of people volunteer to go in there and work, you know, to sign people in and hand out ballots and stuff in. As far as I know here in my County, I don't think that's a paid position. So a lot of people would be giving up their weekend. Of course, they're giving up taking having to take time off work on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"26:16"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A Tuesday to do it as well. So it's I'm kind of on the fence with this one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"26:53"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>10183</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"26:53"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>I wouldn't mind having it on a Saturday. I think that would be a good idea to make sure that other people get a chance to vote and if they have cabins and want to go out of town, they can vote on the way out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"27:08"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Well with early voting in my state it doesn't matter what day the actual election happens on because I would say about 75 percent of people in my age group vote early, just to avoid the lines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48631</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"27:08"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But a lot of our precincts are in school and they have to give the school closed the schools to have elections. So holiday might be a good thing because the schools would already be closed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48675</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"32:06"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>I'm wondering if we should put something in the question about redistricting, so they know what that is about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"32:18"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n"/>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"32:18"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I think it needs to be put in there on the redistricting but I think it's a very good question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"32:49"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I think that's very good the way you put it, James.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"32:56"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>All right, sounds good. We can move on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"33:23"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>I think we all agree on that. There should be full disclosure</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"33:58"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Does everybody understand that? Or do I need to reword anything?</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48595</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"34:05"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>No, that's all fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>9811</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"34:48"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>I like this question. It's a good question. I think so. It ought to be higher-ranked I think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"34:57"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I think this is a very potent question to ask the panel members of the, we can't just like, every other</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"34:57"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"34:57"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"34:57"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="n"/>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48634</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="5"/>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"34:57"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83813F48-05B2-A645-A93E-9A68E7A96863}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>